--- a/userData.xlsx
+++ b/userData.xlsx
@@ -122,7 +122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>

--- a/userData.xlsx
+++ b/userData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
   <si>
     <t>名称</t>
   </si>
@@ -78,6 +78,33 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>11111</t>
+  </si>
+  <si>
+    <t>ee79976c9380d5e337fc1c095ece8c8f22f91f306ceeb161fa51fecede2c4ba1</t>
+  </si>
+  <si>
+    <t>BRONZE_CUSTOMER</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1@123.com</t>
+  </si>
+  <si>
+    <t>12312343456</t>
+  </si>
+  <si>
+    <t>20231004</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
   </si>
 </sst>
 </file>
@@ -122,7 +149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -244,6 +271,38 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/userData.xlsx
+++ b/userData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>名称</t>
   </si>
@@ -44,6 +44,12 @@
     <t>登录锁定</t>
   </si>
   <si>
+    <t xml:space="preserve">购买记录 </t>
+  </si>
+  <si>
+    <t>购买时间</t>
+  </si>
+  <si>
     <t>admin</t>
   </si>
   <si>
@@ -62,6 +68,9 @@
     <t>false</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>manager</t>
   </si>
   <si>
@@ -92,19 +101,22 @@
     <t>3</t>
   </si>
   <si>
-    <t>1@123.com</t>
-  </si>
-  <si>
-    <t>12312343456</t>
-  </si>
-  <si>
-    <t>20231004</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
+    <t>1@qq.com</t>
+  </si>
+  <si>
+    <t>12312341234</t>
+  </si>
+  <si>
+    <t>20231005</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>,b7c92b0d-7141-4448-b1e2-a1a5c4e2b9cd</t>
+  </si>
+  <si>
+    <t>,2023-10-05 19:16:45</t>
   </si>
 </sst>
 </file>
@@ -149,7 +161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -186,121 +198,151 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
